--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/nbar_mechanism_bayo/nbar_mechanism_oc.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/nbar_mechanism_bayo/nbar_mechanism_oc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\nbar_mechanism_bayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1C732-5C8E-4D69-94CE-8F56A7590DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F60669-C452-456A-B3A6-0EF1E055F1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1710" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,18 +1312,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1333,12 +1411,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1351,74 +1423,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,7 +1441,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,34 +1459,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1504,34 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1990,44 +1993,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="J2" s="72" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="J2" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="46">
         <v>10</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="79" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="94"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="40" t="s">
         <v>153</v>
       </c>
@@ -2036,10 +2039,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="46">
         <v>1E-3</v>
       </c>
@@ -2052,14 +2055,14 @@
       <c r="K4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="82"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="39" t="s">
         <v>124</v>
       </c>
       <c r="N4" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="83"/>
       <c r="P4" s="40" t="s">
         <v>154</v>
       </c>
@@ -2068,10 +2071,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="46" t="s">
         <v>79</v>
       </c>
@@ -2084,14 +2087,14 @@
       <c r="K5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="82"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="40" t="s">
         <v>155</v>
       </c>
@@ -2100,10 +2103,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="46" t="s">
         <v>3</v>
       </c>
@@ -2116,14 +2119,14 @@
       <c r="K6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="82"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="40" t="s">
         <v>126</v>
       </c>
       <c r="N6" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="40" t="s">
         <v>159</v>
       </c>
@@ -2132,10 +2135,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="46">
         <v>-9.8066499999999994</v>
       </c>
@@ -2148,14 +2151,14 @@
       <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="82"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="40" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="40" t="s">
         <v>158</v>
       </c>
@@ -2164,10 +2167,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="46" t="s">
         <v>248</v>
       </c>
@@ -2180,14 +2183,14 @@
       <c r="K8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="83"/>
       <c r="P8" s="40" t="s">
         <v>162</v>
       </c>
@@ -2196,10 +2199,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="46"/>
       <c r="E9" s="47" t="s">
         <v>117</v>
@@ -2210,14 +2213,14 @@
       <c r="K9" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="82"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="83"/>
       <c r="P9" s="40" t="s">
         <v>163</v>
       </c>
@@ -2232,14 +2235,14 @@
       <c r="K10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="82"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95"/>
+      <c r="O10" s="83"/>
       <c r="P10" s="45" t="s">
         <v>164</v>
       </c>
@@ -2250,14 +2253,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="49"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="82"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="40" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="95"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="45" t="s">
         <v>165</v>
       </c>
@@ -2266,25 +2269,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="J12" s="51"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="82"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="40" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="95"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="40" t="s">
         <v>170</v>
       </c>
@@ -2293,29 +2296,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
       <c r="J13" s="51"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="82"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="40" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="95"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="45" t="s">
         <v>171</v>
       </c>
@@ -2324,29 +2327,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
       <c r="J14" s="53"/>
       <c r="K14" s="54"/>
-      <c r="L14" s="82"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="40" t="s">
         <v>130</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="95"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="45" t="s">
         <v>172</v>
       </c>
@@ -2355,31 +2358,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="J15" s="79" t="s">
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="J15" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="82"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="95"/>
+      <c r="O15" s="83"/>
       <c r="P15" s="45" t="s">
         <v>173</v>
       </c>
@@ -2388,33 +2391,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
       <c r="J16" s="40" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="82"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="40" t="s">
         <v>131</v>
       </c>
       <c r="N16" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="95"/>
+      <c r="O16" s="83"/>
       <c r="P16" s="40" t="s">
         <v>178</v>
       </c>
@@ -2423,31 +2426,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
       <c r="J17" s="40" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="79" t="s">
+      <c r="L17" s="106"/>
+      <c r="M17" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="95"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="83"/>
       <c r="P17" s="45" t="s">
         <v>179</v>
       </c>
@@ -2456,33 +2459,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
       <c r="J18" s="40" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="82"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="48" t="s">
         <v>152</v>
       </c>
       <c r="N18" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="O18" s="95"/>
+      <c r="O18" s="83"/>
       <c r="P18" s="45" t="s">
         <v>180</v>
       </c>
@@ -2491,33 +2494,33 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E19" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
       <c r="J19" s="40" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="82"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="41" t="s">
         <v>144</v>
       </c>
       <c r="N19" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="95"/>
+      <c r="O19" s="83"/>
       <c r="P19" s="45" t="s">
         <v>181</v>
       </c>
@@ -2526,33 +2529,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="43" t="s">
         <v>231</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
       <c r="J20" s="40" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="82"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="41" t="s">
         <v>145</v>
       </c>
       <c r="N20" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="95"/>
+      <c r="O20" s="83"/>
       <c r="P20" s="40" t="s">
         <v>186</v>
       </c>
@@ -2561,31 +2564,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="44"/>
       <c r="E21" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
       <c r="J21" s="40" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="82"/>
+      <c r="L21" s="106"/>
       <c r="M21" s="41" t="s">
         <v>146</v>
       </c>
       <c r="N21" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="95"/>
+      <c r="O21" s="83"/>
       <c r="P21" s="45" t="s">
         <v>187</v>
       </c>
@@ -2594,20 +2597,20 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="100"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="59">
         <v>2</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="84"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="71">
         <v>2</v>
       </c>
@@ -2617,14 +2620,14 @@
       <c r="K22" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="83"/>
+      <c r="L22" s="107"/>
       <c r="M22" s="41" t="s">
         <v>147</v>
       </c>
       <c r="N22" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="83"/>
       <c r="P22" s="45" t="s">
         <v>188</v>
       </c>
@@ -2633,19 +2636,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="59"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="71"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="95"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="83"/>
       <c r="P23" s="45" t="s">
         <v>189</v>
       </c>
@@ -2654,19 +2657,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="71"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="95"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="83"/>
       <c r="P24" s="28" t="s">
         <v>195</v>
       </c>
@@ -2675,19 +2678,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="71"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="95"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="83"/>
       <c r="P25" s="28" t="s">
         <v>199</v>
       </c>
@@ -2696,19 +2699,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="59"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="71"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="95"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="83"/>
       <c r="P26" s="28" t="s">
         <v>200</v>
       </c>
@@ -2717,19 +2720,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="71"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="95"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="83"/>
       <c r="P27" s="28" t="s">
         <v>201</v>
       </c>
@@ -2738,19 +2741,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
       <c r="H28" s="71"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="95"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="83"/>
       <c r="P28" s="28" t="s">
         <v>203</v>
       </c>
@@ -2759,19 +2762,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="71"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="95"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="83"/>
       <c r="P29" s="28" t="s">
         <v>202</v>
       </c>
@@ -2780,12 +2783,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="95"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="83"/>
       <c r="P30" s="28" t="s">
         <v>204</v>
       </c>
@@ -2794,12 +2797,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="95"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="83"/>
       <c r="P31" s="28" t="s">
         <v>205</v>
       </c>
@@ -2808,12 +2811,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="95"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="83"/>
       <c r="P32" s="28" t="s">
         <v>206</v>
       </c>
@@ -2822,12 +2825,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="95"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="83"/>
       <c r="P33" s="28" t="s">
         <v>207</v>
       </c>
@@ -2836,12 +2839,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="88"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="95"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="83"/>
       <c r="P34" s="28" t="s">
         <v>208</v>
       </c>
@@ -2850,12 +2853,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="88"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="95"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="83"/>
       <c r="P35" s="28" t="s">
         <v>209</v>
       </c>
@@ -2864,12 +2867,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="95"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="83"/>
       <c r="P36" s="28" t="s">
         <v>218</v>
       </c>
@@ -2878,12 +2881,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="88"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="95"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="83"/>
       <c r="P37" s="28" t="s">
         <v>219</v>
       </c>
@@ -2892,12 +2895,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="91"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="95"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="83"/>
       <c r="P38" s="28" t="s">
         <v>220</v>
       </c>
@@ -2915,20 +2918,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2945,6 +2934,20 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="F22:G29"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2956,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,118 +2979,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="73" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="84" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="109" t="s">
+      <c r="S2" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="73" t="s">
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="96" t="s">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="73" t="s">
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73" t="s">
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3141,8 +3144,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="84"/>
-      <c r="S3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="110"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3367,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="S5" s="69">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="T5" s="61">
-        <v>8.9200000000000002E-2</v>
+        <v>9.1350000000000001E-2</v>
       </c>
       <c r="U5" s="61">
-        <v>1.66E-4</v>
+        <v>1.707E-4</v>
       </c>
       <c r="V5" s="61">
-        <v>8.9300000000000004E-2</v>
+        <v>9.1450000000000004E-2</v>
       </c>
       <c r="W5" s="69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="69">
         <v>0</v>
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="69">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC5" s="29">
         <v>0</v>
@@ -3479,20 +3482,20 @@
       <c r="R6" s="69">
         <v>0</v>
       </c>
-      <c r="S6" s="69">
+      <c r="S6" s="72">
+        <v>1.03</v>
+      </c>
+      <c r="T6" s="61">
+        <v>1.707E-4</v>
+      </c>
+      <c r="U6" s="61">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="V6" s="61">
+        <v>9.1450000000000004E-2</v>
+      </c>
+      <c r="W6" s="69">
         <v>1</v>
-      </c>
-      <c r="T6" s="61">
-        <v>1.66E-4</v>
-      </c>
-      <c r="U6" s="61">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="V6" s="61">
-        <v>8.9300000000000004E-2</v>
-      </c>
-      <c r="W6" s="69">
-        <v>2</v>
       </c>
       <c r="X6" s="69">
         <v>0</v>
@@ -3592,20 +3595,20 @@
       <c r="R7" s="69">
         <v>0</v>
       </c>
-      <c r="S7" s="69">
-        <v>1</v>
+      <c r="S7" s="72">
+        <v>1.03</v>
       </c>
       <c r="T7" s="61">
-        <v>8.9200000000000002E-2</v>
+        <v>9.1350000000000001E-2</v>
       </c>
       <c r="U7" s="61">
-        <v>1.6699999999999999E-4</v>
+        <v>1.707E-4</v>
       </c>
       <c r="V7" s="61">
-        <v>8.9300000000000004E-2</v>
+        <v>9.1450000000000004E-2</v>
       </c>
       <c r="W7" s="69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X7" s="69">
         <v>0</v>
@@ -3620,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="69">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC7" s="29">
         <v>0</v>
@@ -3705,20 +3708,20 @@
       <c r="R8" s="69">
         <v>0</v>
       </c>
-      <c r="S8" s="69">
+      <c r="S8" s="72">
+        <v>1.03</v>
+      </c>
+      <c r="T8" s="61">
+        <v>1.707E-4</v>
+      </c>
+      <c r="U8" s="61">
+        <v>9.1350000000000001E-2</v>
+      </c>
+      <c r="V8" s="61">
+        <v>9.1450000000000004E-2</v>
+      </c>
+      <c r="W8" s="69">
         <v>1</v>
-      </c>
-      <c r="T8" s="61">
-        <v>1.66E-4</v>
-      </c>
-      <c r="U8" s="61">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="V8" s="61">
-        <v>8.9300000000000004E-2</v>
-      </c>
-      <c r="W8" s="69">
-        <v>2</v>
       </c>
       <c r="X8" s="69">
         <v>0</v>
@@ -3818,20 +3821,20 @@
       <c r="R9" s="69">
         <v>0</v>
       </c>
-      <c r="S9" s="69">
-        <v>1</v>
+      <c r="S9" s="72">
+        <v>1.03</v>
       </c>
       <c r="T9" s="61">
-        <v>8.9200000000000002E-2</v>
+        <v>9.1350000000000001E-2</v>
       </c>
       <c r="U9" s="61">
-        <v>1.6699999999999999E-4</v>
+        <v>1.707E-4</v>
       </c>
       <c r="V9" s="61">
-        <v>8.9300000000000004E-2</v>
+        <v>9.1450000000000004E-2</v>
       </c>
       <c r="W9" s="69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X9" s="69">
         <v>0</v>
@@ -3846,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="69">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC9" s="29">
         <v>0</v>
@@ -6845,12 +6848,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6864,6 +6861,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6874,7 +6877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -6895,16 +6898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6935,11 +6938,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6995,19 +6998,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7032,16 +7035,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="114" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7077,22 +7080,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7117,21 +7120,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113" t="s">
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113" t="s">
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7185,19 +7188,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7222,16 +7225,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113" t="s">
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7475,19 +7478,19 @@
       <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
@@ -7512,16 +7515,16 @@
       <c r="E24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113" t="s">
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
     </row>
     <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -7558,19 +7561,19 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
@@ -7595,35 +7598,35 @@
       <c r="E28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="113" t="s">
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
     </row>
     <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -7641,44 +7644,44 @@
       <c r="E31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="113" t="s">
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113" t="s">
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
     </row>
     <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
     </row>
     <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
@@ -7696,26 +7699,26 @@
       <c r="E35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="114" t="s">
+      <c r="G35" s="119"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="115"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="113" t="s">
+      <c r="J35" s="119"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113" t="s">
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
     </row>
     <row r="36" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -7750,14 +7753,14 @@
       <c r="R37"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="11"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
@@ -7834,12 +7837,12 @@
       <c r="X41" s="10"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -7905,15 +7908,15 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="119"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="117"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
@@ -7928,11 +7931,11 @@
       <c r="D47" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
@@ -8094,6 +8097,21 @@
     <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="F28:H28"/>
@@ -8110,21 +8128,6 @@
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8162,21 +8165,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="121"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -8194,11 +8197,11 @@
       <c r="E2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="63" t="s">
         <v>244</v>
       </c>
@@ -8271,58 +8274,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="124" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="126"/>
-      <c r="AB2" s="127" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="AB2" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="129"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="139"/>
     </row>
     <row r="3" spans="1:33" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -8340,16 +8343,16 @@
       <c r="E3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="140" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
       <c r="L3" s="58" t="s">
         <v>232</v>
       </c>
@@ -8368,80 +8371,80 @@
       <c r="Q3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="144" t="s">
+      <c r="R3" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="144"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="132"/>
+      <c r="S3" s="135"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="142"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="132"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="142"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="132"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="142"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="145" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="132"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="142"/>
     </row>
     <row r="7" spans="1:33" s="31" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -8459,16 +8462,16 @@
       <c r="E7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="140" t="s">
+      <c r="G7" s="133"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="36" t="s">
         <v>108</v>
       </c>
@@ -8484,89 +8487,89 @@
       <c r="P7" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="122" t="s">
+      <c r="Q7" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="132"/>
+      <c r="R7" s="134"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="142"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q8" s="42"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="132"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="141"/>
+      <c r="AG8" s="142"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="134"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="135"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="145"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="124" t="s">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="126"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="125"/>
       <c r="Z10" s="66"/>
       <c r="AA10" s="66"/>
     </row>
@@ -8586,26 +8589,26 @@
       <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="146" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="136" t="s">
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129" t="s">
         <v>242</v>
       </c>
-      <c r="M11" s="137"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="136" t="s">
+      <c r="M11" s="130"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
       <c r="R11" s="36" t="s">
         <v>71</v>
       </c>
@@ -8624,10 +8627,10 @@
       <c r="W11" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="122" t="s">
+      <c r="X11" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="123"/>
+      <c r="Y11" s="134"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
@@ -8674,25 +8677,25 @@
       <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
     </row>
     <row r="15" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="67"/>
@@ -8706,14 +8709,14 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="124" t="s">
+      <c r="L15" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="125"/>
     </row>
     <row r="16" spans="1:33" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
@@ -8731,16 +8734,16 @@
       <c r="E16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="136" t="s">
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="65" t="s">
         <v>109</v>
       </c>
@@ -8753,10 +8756,10 @@
       <c r="O16" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="122" t="s">
+      <c r="P16" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="123"/>
+      <c r="Q16" s="134"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -8805,6 +8808,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="AB2:AG9"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -8819,18 +8834,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="AB2:AG9"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="A10:S10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8853,21 +8856,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="F1" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="I1" s="76" t="s">
+      <c r="G1" s="104"/>
+      <c r="I1" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -8885,12 +8888,12 @@
       <c r="G2" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
@@ -8902,10 +8905,10 @@
       <c r="G3" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
@@ -8917,10 +8920,10 @@
       <c r="G4" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
@@ -8932,10 +8935,10 @@
       <c r="G5" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
@@ -8947,10 +8950,10 @@
       <c r="G6" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
